--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Sdc3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Sdc3</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H2">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I2">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N2">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O2">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P2">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q2">
-        <v>23.38826862991222</v>
+        <v>8.424599673895777</v>
       </c>
       <c r="R2">
-        <v>210.49441766921</v>
+        <v>75.821397065062</v>
       </c>
       <c r="S2">
-        <v>0.1156884359885725</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="T2">
-        <v>0.1156884359885725</v>
+        <v>0.295877356230023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H3">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I3">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q3">
-        <v>17.32585294517722</v>
+        <v>5.176617628793111</v>
       </c>
       <c r="R3">
-        <v>155.932676506595</v>
+        <v>46.589558659138</v>
       </c>
       <c r="S3">
-        <v>0.08570112055374825</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="T3">
-        <v>0.08570112055374825</v>
+        <v>0.1818061388681701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H4">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I4">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N4">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O4">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P4">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q4">
-        <v>5.80297765069</v>
+        <v>2.068875297414444</v>
       </c>
       <c r="R4">
-        <v>52.22679885621</v>
+        <v>18.61987767673</v>
       </c>
       <c r="S4">
-        <v>0.02870402333357698</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="T4">
-        <v>0.02870402333357699</v>
+        <v>0.07266023040422054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9566616666666666</v>
+        <v>0.2858313333333333</v>
       </c>
       <c r="H5">
-        <v>2.869985</v>
+        <v>0.857494</v>
       </c>
       <c r="I5">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6118992642246002</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N5">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O5">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P5">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q5">
-        <v>77.188128905615</v>
+        <v>12.80319032103466</v>
       </c>
       <c r="R5">
-        <v>694.6931601505349</v>
+        <v>115.228712889312</v>
       </c>
       <c r="S5">
-        <v>0.3818056843487024</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="T5">
-        <v>0.3818056843487024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.820305</v>
-      </c>
-      <c r="I6">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J6">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>24.44779533333334</v>
-      </c>
-      <c r="N6">
-        <v>73.34338600000001</v>
-      </c>
-      <c r="O6">
-        <v>0.1890645123346783</v>
-      </c>
-      <c r="P6">
-        <v>0.1890645123346784</v>
-      </c>
-      <c r="Q6">
-        <v>14.83414802808111</v>
-      </c>
-      <c r="R6">
-        <v>133.50733225273</v>
-      </c>
-      <c r="S6">
-        <v>0.07337607634610582</v>
-      </c>
-      <c r="T6">
-        <v>0.07337607634610584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H7">
-        <v>1.820305</v>
-      </c>
-      <c r="I7">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J7">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>18.11074233333333</v>
-      </c>
-      <c r="N7">
-        <v>54.332227</v>
-      </c>
-      <c r="O7">
-        <v>0.1400575643155068</v>
-      </c>
-      <c r="P7">
-        <v>0.1400575643155068</v>
-      </c>
-      <c r="Q7">
-        <v>10.98902494102611</v>
-      </c>
-      <c r="R7">
-        <v>98.901224469235</v>
-      </c>
-      <c r="S7">
-        <v>0.0543564437617586</v>
-      </c>
-      <c r="T7">
-        <v>0.05435644376175858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H8">
-        <v>1.820305</v>
-      </c>
-      <c r="I8">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J8">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.065862</v>
-      </c>
-      <c r="N8">
-        <v>18.197586</v>
-      </c>
-      <c r="O8">
-        <v>0.0469097202951384</v>
-      </c>
-      <c r="P8">
-        <v>0.04690972029513841</v>
-      </c>
-      <c r="Q8">
-        <v>3.68057297597</v>
-      </c>
-      <c r="R8">
-        <v>33.12515678373001</v>
-      </c>
-      <c r="S8">
-        <v>0.01820569696156142</v>
-      </c>
-      <c r="T8">
-        <v>0.01820569696156142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.6067683333333334</v>
-      </c>
-      <c r="H9">
-        <v>1.820305</v>
-      </c>
-      <c r="I9">
-        <v>0.3881007357753999</v>
-      </c>
-      <c r="J9">
-        <v>0.3881007357753998</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>80.684877</v>
-      </c>
-      <c r="N9">
-        <v>242.054631</v>
-      </c>
-      <c r="O9">
-        <v>0.6239682030546764</v>
-      </c>
-      <c r="P9">
-        <v>0.6239682030546765</v>
-      </c>
-      <c r="Q9">
-        <v>48.957028342495</v>
-      </c>
-      <c r="R9">
-        <v>440.613255082455</v>
-      </c>
-      <c r="S9">
-        <v>0.242162518705974</v>
-      </c>
-      <c r="T9">
-        <v>0.242162518705974</v>
+        <v>0.4496562744975864</v>
       </c>
     </row>
   </sheetData>
